--- a/biology/Médecine/Consommation_de_cannabis/Consommation_de_cannabis.xlsx
+++ b/biology/Médecine/Consommation_de_cannabis/Consommation_de_cannabis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La liste des pays par consommation de cannabis classe les pays du monde selon la consommation de cannabis récréatif de leur population.
-Dans l'Union européenne, environ 96 millions d’adultes, soit 29 % des personnes âgées de 15 à 64 ans, auraient déjà consommé des drogues illicites au cours de leur vie, selon le rapport européen 2017 de l'Observatoire européen des drogues et des toxicomanies (OEDT)[2].
+Dans l'Union européenne, environ 96 millions d’adultes, soit 29 % des personnes âgées de 15 à 64 ans, auraient déjà consommé des drogues illicites au cours de leur vie, selon le rapport européen 2017 de l'Observatoire européen des drogues et des toxicomanies (OEDT).
 </t>
         </is>
       </c>
@@ -515,11 +527,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au cours d'une année (jeunes adultes européens)
-Les données sont issues du rapport annuel 2018 de l'Observatoire européen des drogues et des toxicomanies (OEDT ou EMCCDA) et ont été constituées à partir d'estimations de prévalence à partir d'enquêtes nationales réalisées auprès de la population des jeunes adultes (15-34 ans)[3]. Elles concernent la consommation de cannabis sous toutes ses formes au moins une fois au cours de l'année écoulée.
-Au cours d'une vie
-La prévalence au cours de la vie concerne tous les adultes ayant consommé du cannabis psychotropique dans leur vie en pourcentage de la population totale[4].  La liste ci-dessous classe les pays selon le taux de prévalence de consommation cannabique au cours de la vie adulte[1],[5].  
-Sauf quand une autre référence est indiquée, les données sont issues des rapports annuels de l'Observatoire européen des drogues et des toxicomanies (OEDT)[1]. 
+          <t>Au cours d'une année (jeunes adultes européens)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les données sont issues du rapport annuel 2018 de l'Observatoire européen des drogues et des toxicomanies (OEDT ou EMCCDA) et ont été constituées à partir d'estimations de prévalence à partir d'enquêtes nationales réalisées auprès de la population des jeunes adultes (15-34 ans). Elles concernent la consommation de cannabis sous toutes ses formes au moins une fois au cours de l'année écoulée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Consommation_de_cannabis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Consommation_de_cannabis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taux de prévalence</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Au cours d'une vie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévalence au cours de la vie concerne tous les adultes ayant consommé du cannabis psychotropique dans leur vie en pourcentage de la population totale.  La liste ci-dessous classe les pays selon le taux de prévalence de consommation cannabique au cours de la vie adulte,.  
+Sauf quand une autre référence est indiquée, les données sont issues des rapports annuels de l'Observatoire européen des drogues et des toxicomanies (OEDT). 
 </t>
         </is>
       </c>
